--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DEV\React\SNT\SNT_PAY_FORM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV_Django\payments-page_snt-mayak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92161082-DCD8-4E0F-898B-E94FC3B2B8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA0929-3295-4506-A551-53CE6A164198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">                               Форма №ПД-4</t>
   </si>
   <si>
-    <t>40703810440000000000</t>
-  </si>
-  <si>
     <t xml:space="preserve">       ИНН 5009009825, КПП 500901001, СНТ "МАЯК"</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   <si>
     <t xml:space="preserve">С условиями приёма указанной в платёжном документе суммы, в т.ч. с суммой взимаемой платы за услуги  
 банка, ознакомлен и согласен.  </t>
+  </si>
+  <si>
+    <t>40703810440000003663</t>
   </si>
 </sst>
 </file>
@@ -264,47 +264,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -323,16 +282,57 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18CB8E8-0DF9-4F95-9899-94CA2A2CB184}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -693,276 +693,263 @@
     <row r="1" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="C2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12"/>
+      <c r="C4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14"/>
+      <c r="C6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="C8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="21"/>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="21"/>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="22"/>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="24"/>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="C16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="8"/>
+      <c r="C18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9"/>
+      <c r="C19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="C20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="12"/>
+      <c r="C20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="C22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9"/>
+      <c r="C23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="8"/>
+      <c r="C24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="21"/>
+      <c r="C27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="21"/>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="22"/>
+      <c r="C29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="24"/>
+      <c r="C30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="17"/>
+      <c r="C32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -974,6 +961,19 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV_Django\payments-page_snt-mayak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\payments-page_snt-mayak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA0929-3295-4506-A551-53CE6A164198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB512FB8-389B-4793-92B6-C184E71F33B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>ИЗВЕЩЕНИЕ</t>
   </si>
@@ -60,16 +60,10 @@
     <t xml:space="preserve">       ИНН 5009009825, КПП 500901001, СНТ "МАЯК"</t>
   </si>
   <si>
-    <t xml:space="preserve">       ПАО Сбербанк</t>
-  </si>
-  <si>
     <t xml:space="preserve">           (ИНН и наименование получателя платежа)</t>
   </si>
   <si>
     <t xml:space="preserve"> (наименование банка и банковские реквизиты)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИК: 044525225                                            Кор./сч.: 30101810400000000225  </t>
   </si>
   <si>
     <t xml:space="preserve">    Плательщик(Ф.И.О.): </t>
@@ -88,7 +82,16 @@
 банка, ознакомлен и согласен.  </t>
   </si>
   <si>
-    <t>40703810440000003663</t>
+    <t>40703810070010004316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      МОСКОВСКИЙ ФИЛИАЛ АО КБ "МОДУЛЬБАНК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       МОСКОВСКИЙ ФИЛИАЛ АО КБ "МОДУЛЬБАНК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИК: 044525092                                            Кор./сч.: 30101810645250000092  </t>
   </si>
 </sst>
 </file>
@@ -283,48 +286,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -332,6 +293,48 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18CB8E8-0DF9-4F95-9899-94CA2A2CB184}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -693,10 +696,10 @@
     <row r="1" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -712,16 +715,16 @@
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="C4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="30"/>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -734,16 +737,16 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22"/>
+      <c r="C6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="20"/>
     </row>
@@ -751,7 +754,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="24"/>
     </row>
@@ -773,7 +776,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -781,7 +784,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -789,7 +792,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -797,7 +800,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -806,26 +809,26 @@
       <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="16"/>
+      <c r="C16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -841,16 +844,16 @@
         <v>4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="C20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="30"/>
+      <c r="C20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -863,16 +866,16 @@
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="22"/>
+      <c r="C22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="20"/>
     </row>
@@ -880,7 +883,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D24" s="24"/>
     </row>
@@ -902,7 +905,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -910,7 +913,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -918,7 +921,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -926,7 +929,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -935,21 +938,29 @@
       <c r="B31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="16"/>
+      <c r="C32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -966,14 +977,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\payments-page_snt-mayak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV_Django\payments-page_snt-mayak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB512FB8-389B-4793-92B6-C184E71F33B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8652CA5-2954-4D47-8E54-889DEBC9D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,16 +82,16 @@
 банка, ознакомлен и согласен.  </t>
   </si>
   <si>
-    <t>40703810070010004316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      МОСКОВСКИЙ ФИЛИАЛ АО КБ "МОДУЛЬБАНК"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       МОСКОВСКИЙ ФИЛИАЛ АО КБ "МОДУЛЬБАНК"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИК: 044525092                                            Кор./сч.: 30101810645250000092  </t>
+    <t xml:space="preserve">БИК: 044525225                                            Кор./сч.: 30101810400000000225  </t>
+  </si>
+  <si>
+    <t>40703810440000003663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ПАО Сбербанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ПАО Сбербанк</t>
   </si>
 </sst>
 </file>
@@ -286,6 +286,42 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -294,47 +330,11 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -682,7 +682,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -696,10 +696,10 @@
     <row r="1" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -721,10 +721,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -737,10 +737,10 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -754,7 +754,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="24"/>
     </row>
@@ -809,26 +809,26 @@
       <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -850,10 +850,10 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="C20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="16"/>
+      <c r="C20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -866,10 +866,10 @@
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="26"/>
+      <c r="C22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -883,7 +883,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" s="24"/>
     </row>
@@ -938,29 +938,21 @@
       <c r="B31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -977,6 +969,14 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
